--- a/data/output/FV2404_FV2310/UTILMD/55195.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55195.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="380">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="380">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1290,6 +1290,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U205" totalsRowShown="0">
+  <autoFilter ref="A1:U205"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1579,7 +1609,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11109,5 +11142,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55195.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5358" uniqueCount="576">
   <si>
     <t>#</t>
   </si>
@@ -9933,46 +9933,44 @@
       <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2" t="s">
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L152" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M152" s="2" t="s">
+      <c r="L152" s="7"/>
+      <c r="M152" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="N152" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2" t="s">
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="V152" s="2" t="s">
+      <c r="V152" s="5" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10463,46 +10461,44 @@
       <c r="V161" s="2"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2" t="s">
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L162" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M162" s="2" t="s">
+      <c r="L162" s="7"/>
+      <c r="M162" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="N162" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2" t="s">
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="5"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+      <c r="U162" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="V162" s="2" t="s">
+      <c r="V162" s="5" t="s">
         <v>319</v>
       </c>
     </row>
@@ -10773,44 +10769,42 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K168" s="2"/>
-      <c r="L168" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M168" s="2" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K168" s="5"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="N168" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V168" s="2"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="5"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+      <c r="U168" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V168" s="5"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="2" t="s">
@@ -11075,46 +11069,44 @@
       <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L174" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M174" s="2" t="s">
+      <c r="L174" s="7"/>
+      <c r="M174" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="N174" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2" t="s">
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V174" s="2" t="s">
+      <c r="V174" s="5" t="s">
         <v>320</v>
       </c>
     </row>
@@ -11277,46 +11269,44 @@
       <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2" t="s">
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L178" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M178" s="2" t="s">
+      <c r="L178" s="7"/>
+      <c r="M178" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N178" s="2" t="s">
+      <c r="N178" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-      <c r="Q178" s="2"/>
-      <c r="R178" s="2"/>
-      <c r="S178" s="2"/>
-      <c r="T178" s="2"/>
-      <c r="U178" s="2" t="s">
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="5"/>
+      <c r="S178" s="5"/>
+      <c r="T178" s="5"/>
+      <c r="U178" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="V178" s="2" t="s">
+      <c r="V178" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -11807,46 +11797,44 @@
       <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L188" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="L188" s="7"/>
+      <c r="M188" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N188" s="2" t="s">
+      <c r="N188" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2" t="s">
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="V188" s="2" t="s">
+      <c r="V188" s="5" t="s">
         <v>323</v>
       </c>
     </row>
@@ -12275,44 +12263,42 @@
       </c>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="M197" s="2" t="s">
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K197" s="5"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="N197" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="V197" s="2"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="2" t="s">
